--- a/docs/Maps & Elections by State.xlsx
+++ b/docs/Maps & Elections by State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD6CED4-DCAC-8649-89CA-5E3B64D7F946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940CEFC5-BB0D-B24B-96E0-A660B1671B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="2520" windowWidth="27260" windowHeight="16940" xr2:uid="{681EA93E-AE60-7D46-B720-CAB4E15116B4}"/>
+    <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{681EA93E-AE60-7D46-B720-CAB4E15116B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Elections by State" sheetId="2" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="M51" sqref="M3:M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/Maps & Elections by State.xlsx
+++ b/docs/Maps & Elections by State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940CEFC5-BB0D-B24B-96E0-A660B1671B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FADB8C-E483-8C4A-9BFC-3D381ADBBD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{681EA93E-AE60-7D46-B720-CAB4E15116B4}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="199">
   <si>
     <t>AL</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>117_D</t>
+  </si>
+  <si>
+    <t>Is this the latest?</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="M3:M51"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2663,6 +2666,12 @@
       </c>
       <c r="L36" t="s">
         <v>6</v>
+      </c>
+      <c r="M36" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" t="s">
+        <v>198</v>
       </c>
       <c r="O36" t="s">
         <v>158</v>
